--- a/dataSet/mac_os_server_AML.xlsx
+++ b/dataSet/mac_os_server_AML.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E07C305-C333-437B-A30F-9477BD0C6FAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53956886-6D49-44A2-9059-E2A4E5F99BFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,244 +404,244 @@
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>0</v>
+        <v>24.194317383400001</v>
       </c>
       <c r="B1">
-        <v>11.835279600662201</v>
+        <v>26.8200268875723</v>
       </c>
       <c r="C1">
-        <v>23.201765311256899</v>
+        <v>29.707424935982299</v>
       </c>
       <c r="D1">
-        <v>34.1351842085244</v>
+        <v>32.877379132269198</v>
       </c>
       <c r="E1">
-        <v>44.667328669525801</v>
+        <v>36.351267730806697</v>
       </c>
       <c r="F1">
-        <v>54.826613752645102</v>
+        <v>40.150714100912097</v>
       </c>
       <c r="G1">
-        <v>64.638539248333302</v>
+        <v>44.297254646193402</v>
       </c>
       <c r="H1">
-        <v>74.126075319667294</v>
+        <v>48.811935082382703</v>
       </c>
       <c r="I1">
-        <v>83.309986411826401</v>
+        <v>53.714832129738902</v>
       </c>
       <c r="J1">
-        <v>92.209104921415204</v>
+        <v>59.024500768224598</v>
       </c>
       <c r="K1">
-        <v>100.84056369599401</v>
+        <v>64.757351322591703</v>
       </c>
       <c r="L1">
-        <v>109.21999457936801</v>
+        <v>70.926965801067297</v>
       </c>
       <c r="M1">
-        <v>117.36169878456001</v>
+        <v>77.543369003121398</v>
       </c>
       <c r="N1">
-        <v>125.278793759371</v>
+        <v>84.612276686916601</v>
       </c>
       <c r="O1">
-        <v>132.983340332371</v>
+        <v>92.134350115718604</v>
       </c>
       <c r="P1">
-        <v>140.48645323370499</v>
+        <v>100.104492966305</v>
       </c>
       <c r="Q1">
-        <v>147.79839753298899</v>
+        <v>108.511232091704</v>
       </c>
       <c r="R1">
-        <v>154.928673094278</v>
+        <v>117.33622708054401</v>
       </c>
       <c r="S1">
-        <v>161.88608879159301</v>
+        <v>126.553954024801</v>
       </c>
       <c r="T1">
-        <v>168.67882793954601</v>
+        <v>136.13160559813801</v>
       </c>
       <c r="U1">
-        <v>175.314506158104</v>
+        <v>146.02924194646701</v>
       </c>
       <c r="V1">
-        <v>181.800222697621</v>
+        <v>156.20021493732699</v>
       </c>
       <c r="W1">
-        <v>188.14260609150699</v>
+        <v>166.591872513238</v>
       </c>
       <c r="X1">
-        <v>194.34785487256201</v>
+        <v>177.146531371473</v>
       </c>
       <c r="Y1">
-        <v>200.421773979959</v>
+        <v>187.80268662776399</v>
       </c>
       <c r="Z1">
-        <v>206.36980739285599</v>
+        <v>198.49640856562499</v>
       </c>
       <c r="AA1">
-        <v>212.197067450432</v>
+        <v>209.16286116776001</v>
       </c>
       <c r="AB1">
-        <v>217.90836125407299</v>
+        <v>219.73786676603399</v>
       </c>
       <c r="AC1">
-        <v>223.508214493358</v>
+        <v>230.159437157984</v>
       </c>
       <c r="AD1">
-        <v>229.00089299175201</v>
+        <v>240.369194441465</v>
       </c>
       <c r="AE1">
-        <v>234.390422228951</v>
+        <v>250.313614235107</v>
       </c>
       <c r="AF1">
-        <v>239.680605063727</v>
+        <v>259.94503867033598</v>
       </c>
       <c r="AG1">
-        <v>244.875037852688</v>
+        <v>269.22242473608901</v>
       </c>
       <c r="AH1">
-        <v>249.977125136117</v>
+        <v>278.11181310510398</v>
       </c>
       <c r="AI1">
-        <v>254.99009304105201</v>
+        <v>286.586521383942</v>
       </c>
       <c r="AJ1">
-        <v>259.917001533774</v>
+        <v>294.62708205432602</v>
       </c>
       <c r="AK1">
-        <v>264.760755638229</v>
+        <v>302.22095799045002</v>
       </c>
       <c r="AL1">
-        <v>269.52411572337002</v>
+        <v>309.36207673975201</v>
       </c>
       <c r="AM1">
-        <v>274.20970695064102</v>
+        <v>316.050228722643</v>
       </c>
       <c r="AN1">
-        <v>278.82002796256103</v>
+        <v>322.290374590493</v>
       </c>
       <c r="AO1">
-        <v>283.35745888440698</v>
+        <v>328.09190394524802</v>
       </c>
       <c r="AP1">
-        <v>287.82426870314703</v>
+        <v>333.46788238008497</v>
       </c>
       <c r="AQ1">
-        <v>292.22262208089302</v>
+        <v>338.43431726381198</v>
       </c>
       <c r="AR1">
-        <v>296.554585654096</v>
+        <v>343.00946567489598</v>
       </c>
       <c r="AS1">
-        <v>300.822133864367</v>
+        <v>347.21320104193398</v>
       </c>
       <c r="AT1">
-        <v>305.02715436209598</v>
+        <v>351.06644882565399</v>
       </c>
       <c r="AU1">
-        <v>309.171453019902</v>
+        <v>354.59069626185402</v>
       </c>
       <c r="AV1">
-        <v>313.25675858922398</v>
+        <v>357.80757689888901</v>
       </c>
       <c r="AW1">
-        <v>317.28472703011499</v>
+        <v>360.73852741203802</v>
       </c>
       <c r="AX1">
-        <v>321.25694554138403</v>
+        <v>363.404511882934</v>
       </c>
       <c r="AY1">
-        <v>325.17493631562098</v>
+        <v>365.82580726850398</v>
       </c>
       <c r="AZ1">
-        <v>329.040160041349</v>
+        <v>368.02184300246103</v>
       </c>
       <c r="BA1">
-        <v>332.85401917246003</v>
+        <v>370.01108742231497</v>
       </c>
       <c r="BB1">
-        <v>336.61786098325399</v>
+        <v>371.810973856629</v>
       </c>
       <c r="BC1">
-        <v>340.33298042572801</v>
+        <v>373.43785961886101</v>
       </c>
       <c r="BD1">
-        <v>344.00062280428699</v>
+        <v>374.90701173553498</v>
       </c>
       <c r="BE1">
-        <v>347.62198628168898</v>
+        <v>376.23261390850399</v>
       </c>
       <c r="BF1">
-        <v>351.198224228855</v>
+        <v>377.42778991468498</v>
       </c>
       <c r="BG1">
-        <v>354.73044743006898</v>
+        <v>378.50463933964397</v>
       </c>
       <c r="BH1">
-        <v>358.21972615411499</v>
+        <v>379.47428219566399</v>
       </c>
       <c r="BI1">
-        <v>361.66709210101902</v>
+        <v>380.346909573358</v>
       </c>
       <c r="BJ1">
-        <v>365.073540233252</v>
+        <v>381.13183800967602</v>
       </c>
       <c r="BK1">
-        <v>368.44003049952801</v>
+        <v>381.837565721543</v>
       </c>
       <c r="BL1">
-        <v>371.76748945866501</v>
+        <v>382.47182925463699</v>
       </c>
       <c r="BM1">
-        <v>375.05681181039199</v>
+        <v>383.04165943502699</v>
       </c>
       <c r="BN1">
-        <v>378.30886183941499</v>
+        <v>383.55343579300597</v>
       </c>
       <c r="BO1">
-        <v>381.52447477858198</v>
+        <v>384.01293885977799</v>
       </c>
       <c r="BP1">
-        <v>384.704458096525</v>
+        <v>384.42539992509302</v>
       </c>
       <c r="BQ1">
-        <v>387.84959271474901</v>
+        <v>384.79554799373301</v>
       </c>
       <c r="BR1">
-        <v>390.96063415873999</v>
+        <v>385.12765379670901</v>
       </c>
       <c r="BS1">
-        <v>394.038313647363</v>
+        <v>385.42557080440997</v>
       </c>
       <c r="BT1">
-        <v>397.08333912445698</v>
+        <v>385.69277325836401</v>
       </c>
       <c r="BU1">
-        <v>400.09639623627999</v>
+        <v>385.93239128981702</v>
       </c>
       <c r="BV1">
-        <v>403.07814925817399</v>
+        <v>386.14724323034898</v>
       </c>
       <c r="BW1">
-        <v>406.02924197359198</v>
+        <v>386.339865245326</v>
       </c>
       <c r="BX1">
-        <v>408.95029850837898</v>
+        <v>386.512538437324</v>
       </c>
       <c r="BY1">
-        <v>411.84192412303202</v>
+        <v>386.667313576043</v>
       </c>
       <c r="BZ1">
-        <v>414.70470596544101</v>
+        <v>386.806033615052</v>
       </c>
       <c r="CA1">
-        <v>417.53921378645703</v>
+        <v>386.93035415551799</v>
       </c>
       <c r="CB1">
-        <v>420.34600062047099</v>
+        <v>387.04176201377499</v>
       </c>
     </row>
   </sheetData>
